--- a/companydata.xlsx
+++ b/companydata.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE196A-E4F3-4078-9A53-551DE045D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
   <si>
     <t>Company Name</t>
   </si>
@@ -337,12 +336,448 @@
   </si>
   <si>
     <t>Meharoof Ahamed (Business Developer)</t>
+  </si>
+  <si>
+    <t>Raissy Trading and |Contracting Company</t>
+  </si>
+  <si>
+    <t>Eng. Abdulaziz Al-Odailah</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abdulaziz-alodailah/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>P.O. Box 41763 Riyadh 11531</t>
+  </si>
+  <si>
+    <t>info@raissy.com.sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/7gZaqEo</t>
+  </si>
+  <si>
+    <t>Al-Ayuni Investment and Contracting Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+info@alayuni.com</t>
+  </si>
+  <si>
+    <t>11 240 5000</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Quu59uM</t>
+  </si>
+  <si>
+    <t>Waleed Al-Bat'he</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/waleed-al-bat-he-91b40b19/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alia Plaza Building, Thmuama Street, Riyadh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashayer Al-Binaa Contracting
+</t>
+  </si>
+  <si>
+    <t>Arab Sea Street  - Yarmouk District</t>
+  </si>
+  <si>
+    <t>info@bashaersa.com</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/YTbjQyi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bashaer-company-163789305/</t>
+  </si>
+  <si>
+    <t>Company Owner</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>011 463 3554</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/oJiHA3p</t>
+  </si>
+  <si>
+    <t>info@dathin.com</t>
+  </si>
+  <si>
+    <t>Musa Bin Naseer Street, Olaya, Riyadh, 11322, KSA</t>
+  </si>
+  <si>
+    <t>Dathin Contracting</t>
+  </si>
+  <si>
+    <t>Abdullah Bin jamaan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abdullah-bin-jamaan-27352a286/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>4028 Prince Mohammed Ibn Salman Ibn Abdulaziz Rd, Ar Rabi, Riyadh 13316, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Lynx Contracting</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/eqt7FpZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 829 5800</t>
+  </si>
+  <si>
+    <t>contact@lynxcontracting.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAHIA RAGUIG
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yahia-raguig-7b2517ab/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=eh</t>
+  </si>
+  <si>
+    <t>THABAT Construction Compoany</t>
+  </si>
+  <si>
+    <t>Thabat Construction Company Ltd. P.O. Box 12483 Riyadh 2719, Saudi Arabia.</t>
+  </si>
+  <si>
+    <t>info@thabat.sa </t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/RrdCgrK</t>
+  </si>
+  <si>
+    <t>Ehab Shata (Opoeration Director)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ehab-shata-2169b341/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Alomaier company for tranding and contracting OTC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khalid-baabdullah-573a502/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Khalid Baabdullah</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/NVhZagA</t>
+  </si>
+  <si>
+    <t>Mutlaq Al-Ghowairi</t>
+  </si>
+  <si>
+    <t>Al Andalus, Riyadh 13212, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/rXDpyYR</t>
+  </si>
+  <si>
+    <t>info@mgc.com.sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Mokhtar
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ahmed-mokhtar-952452111/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>BINYAH</t>
+  </si>
+  <si>
+    <t>Office No. 605, Al Akaria 2 Commercial Building Olaya St., Riyadh 12244, Kingdom of Saudi Arabia P.O.Box: 2567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@binyah.com.sa</t>
+  </si>
+  <si>
+    <t>11 419 0728</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/kWbfYHf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHAD ALMESFIR
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/falmesfir/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>SAUDI ELAF CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>Makkah Al-Mukarramah Road, Al-Ma’athar Al-Shamaliyah District, Riyadh, Kingdom of Saudi Arabia.</t>
+  </si>
+  <si>
+    <t>business@saudielaf.com</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/eKkDt6e</t>
+  </si>
+  <si>
+    <t>Khaled Abdullah (Deputy CEO)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khaled-abdullah-43aa0862/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Emirates NBD Building, 2nd. Floor King Fahad road, Al Mohammadiyyah District P.O.Box: 89767, Riyadh 11692 Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t>TDC Contracting</t>
+  </si>
+  <si>
+    <t>info@tech-develop.com</t>
+  </si>
+  <si>
+    <t>11 225 3576</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Njom9Mm</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hassan-alqahtani-a1907442/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Hassan AlQahtani (CEO, Founder)</t>
+  </si>
+  <si>
+    <t>Youssef Marroun Contracting Co. (YMCO)</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/B5AQnTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef Marroun </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ymarroun/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Al Imam Ali Ibn Abi Taleb, Al Malaz, Riyadh 12832</t>
+  </si>
+  <si>
+    <t>info@ymco.sa</t>
+  </si>
+  <si>
+    <t>Dawn Construction Industry</t>
+  </si>
+  <si>
+    <t>info@fajr.co.in</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/HnfoNb3</t>
+  </si>
+  <si>
+    <t>7491 Muhammad Ali Junah، 3947، Riyadh 7491, Riyadh 13241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Abdul Aziz Road in front of Sahara Market – Gate 4 Postal Code: 12461, PO Box 92284
+</t>
+  </si>
+  <si>
+    <t>11-2003600</t>
+  </si>
+  <si>
+    <t>info@labenat-albena.com</t>
+  </si>
+  <si>
+    <t>Labenat Al-Bena Contracting Company</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/4LXmnLc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mahmoud-soliman-818667122/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Mahmoud Soliman (Project Manager)</t>
+  </si>
+  <si>
+    <t>MARAMER</t>
+  </si>
+  <si>
+    <t>info@maramer.sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/M2i3B46</t>
+  </si>
+  <si>
+    <t>King Abdul Aziz Branch Rd, St, عبدالعزيز أبا حسين, Riyadh 12461</t>
+  </si>
+  <si>
+    <t>Mohammad Hamoudah (Project Executive)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohammad-hamoudah-41960b53/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Riyadh - Granada District - Al Diyar Street - P.O. Box: 7795 - Postal Code: Riyadh 13242</t>
+  </si>
+  <si>
+    <t>info@alhadab.com.sa</t>
+  </si>
+  <si>
+    <t>112484131</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/raL7RZ9</t>
+  </si>
+  <si>
+    <t>Al Hadab Trading and Contracting Company</t>
+  </si>
+  <si>
+    <t>Ramez Aldababey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramez-aldababey-pmi-pmp%C2%AE-2a9a7387/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>UNIMAC Company</t>
+  </si>
+  <si>
+    <t>info@unimaccompany.com</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/ZFDJz61</t>
+  </si>
+  <si>
+    <t>3428 Prince Sultan Street, Sulaymaniyah Riyadh 12234-8191, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>DELTA CJS COMPANY</t>
+  </si>
+  <si>
+    <t>info@delta.com.sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismail Al Azem (Senior Management Executive)
+   </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ismail-al-azem/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/6iaCh5q</t>
+  </si>
+  <si>
+    <t>main@saudigeo.com.sa</t>
+  </si>
+  <si>
+    <t>56 349 6716</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/zCYbRvq</t>
+  </si>
+  <si>
+    <t>Saudi GEO Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Geo Co, Prince Mamdouh Bin Abdulaziz، As Sulimaniyah, Riyadh 12241, Saudi Arabia
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/loay-abanomay-9b757310/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>Loay Abanomay (Owner)</t>
+  </si>
+  <si>
+    <t>AMANA</t>
+  </si>
+  <si>
+    <t>Umar Ibn Abdul Aziz Br Rd, Ar Rabwah, Riyadh 12834</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/UVdRTB7</t>
+  </si>
+  <si>
+    <t>Riad Bsaibes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/riadbsaibes/</t>
+  </si>
+  <si>
+    <t>info@amscontracting.co</t>
+  </si>
+  <si>
+    <t>Abdullah Ibn Saud Ibn Abdullaziz, Al Hamra district, Riyadh 11495</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/9bGAUdA</t>
+  </si>
+  <si>
+    <t>AMS Contracting Company</t>
+  </si>
+  <si>
+    <t>Makkah Al Mukarramah Br Rd, King Abdullah Dt., Riyadh 12421</t>
+  </si>
+  <si>
+    <t>RANCO (Rabia &amp; Nassar Company)</t>
+  </si>
+  <si>
+    <t>Fahad ALRabiah (Investment Director)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fahad-alrabiah-767a896/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/kXRCEKU</t>
+  </si>
+  <si>
+    <t>11 2785849</t>
+  </si>
+  <si>
+    <t>Ramz Kayan Contracting Company</t>
+  </si>
+  <si>
+    <t>Ahmad Qaraman (Project Management)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ahmad-qaraman-666a8b6a/?originalSubdomain=sa</t>
+  </si>
+  <si>
+    <t>حي العليا, 6217 Al Ulaya, RHOA6217, 2822, Riyadh 12241</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/9NTqTBk</t>
+  </si>
+  <si>
+    <t>Riyadh - Abi Bakr As Siddiq St. Building No. 6941, Office No. 05</t>
+  </si>
+  <si>
+    <t>info@sa-arcon.com</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Xvmfyh6</t>
+  </si>
+  <si>
+    <t>ARCON Contracting Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Elkomy
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ahmed-elkomy-83a205a6/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=eg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,25 +1168,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCellId="1" sqref="B1:B1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="139.44140625" customWidth="1"/>
-    <col min="4" max="4" width="130.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="233.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="183" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -820,7 +1255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -843,7 +1278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51.6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -866,7 +1301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -889,7 +1324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -910,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="77.400000000000006" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -933,7 +1368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="77.400000000000006" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -954,7 +1389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51.6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -977,7 +1412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="51.6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1000,7 +1435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="77.400000000000006" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -1023,7 +1458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
@@ -1040,7 +1475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
@@ -1063,7 +1498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1086,14 +1521,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1109,230 +1544,1174 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="12">
+        <v>114977977</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="3">
+        <v>115104000</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3">
+        <v>114927307</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3">
+        <v>112331558</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="3">
+        <v>559025444</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="3">
+        <v>114765992</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="3">
+        <v>11236302</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="3">
+        <v>114910999</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="3">
+        <v>114774307</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="3">
+        <v>114171919</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3">
+        <v>114927137</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="3">
+        <v>114910590</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="3">
+        <v>112270008</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E4" r:id="rId9" display="mailto:info@safindream.sa" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E9" r:id="rId22" display="cfb.gc@cfb.com.sa" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G11" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E13" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E14" r:id="rId33" display="mailto:%20contact@saudi-icon.com" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F14" r:id="rId34" display="tel: (966) 11 461 3900" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G16" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C16" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9" display="mailto:info@safindream.sa"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="G6" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
+    <hyperlink ref="C6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="E7" r:id="rId17"/>
+    <hyperlink ref="C7" r:id="rId18"/>
+    <hyperlink ref="E8" r:id="rId19"/>
+    <hyperlink ref="C8" r:id="rId20"/>
+    <hyperlink ref="G8" r:id="rId21"/>
+    <hyperlink ref="E9" r:id="rId22" display="cfb.gc@cfb.com.sa"/>
+    <hyperlink ref="G9" r:id="rId23"/>
+    <hyperlink ref="G10" r:id="rId24"/>
+    <hyperlink ref="C10" r:id="rId25"/>
+    <hyperlink ref="E11" r:id="rId26"/>
+    <hyperlink ref="G11" r:id="rId27"/>
+    <hyperlink ref="C11" r:id="rId28"/>
+    <hyperlink ref="G12" r:id="rId29"/>
+    <hyperlink ref="C12" r:id="rId30"/>
+    <hyperlink ref="E13" r:id="rId31"/>
+    <hyperlink ref="G13" r:id="rId32"/>
+    <hyperlink ref="E14" r:id="rId33" display="mailto:%20contact@saudi-icon.com"/>
+    <hyperlink ref="F14" r:id="rId34" display="tel: (966) 11 461 3900"/>
+    <hyperlink ref="G14" r:id="rId35"/>
+    <hyperlink ref="C14" r:id="rId36"/>
+    <hyperlink ref="E15" r:id="rId37"/>
+    <hyperlink ref="C15" r:id="rId38"/>
+    <hyperlink ref="G15" r:id="rId39"/>
+    <hyperlink ref="E16" r:id="rId40"/>
+    <hyperlink ref="G16" r:id="rId41"/>
+    <hyperlink ref="C16" r:id="rId42"/>
+    <hyperlink ref="E17" r:id="rId43"/>
+    <hyperlink ref="G17" r:id="rId44"/>
+    <hyperlink ref="C17" r:id="rId45"/>
+    <hyperlink ref="G18" r:id="rId46"/>
+    <hyperlink ref="C18" r:id="rId47"/>
+    <hyperlink ref="E19" r:id="rId48"/>
+    <hyperlink ref="C19" r:id="rId49"/>
+    <hyperlink ref="G20" r:id="rId50"/>
+    <hyperlink ref="E20" r:id="rId51"/>
+    <hyperlink ref="C20" r:id="rId52"/>
+    <hyperlink ref="E21" r:id="rId53"/>
+    <hyperlink ref="C21" r:id="rId54"/>
+    <hyperlink ref="E22" r:id="rId55" display="mailto:info@thabat.sa"/>
+    <hyperlink ref="G22" r:id="rId56"/>
+    <hyperlink ref="C22" r:id="rId57"/>
+    <hyperlink ref="E23" r:id="rId58"/>
+    <hyperlink ref="C23" r:id="rId59"/>
+    <hyperlink ref="G23" r:id="rId60"/>
+    <hyperlink ref="G24" r:id="rId61"/>
+    <hyperlink ref="E24" r:id="rId62"/>
+    <hyperlink ref="C24" r:id="rId63"/>
+    <hyperlink ref="G25" r:id="rId64"/>
+    <hyperlink ref="C25" r:id="rId65"/>
+    <hyperlink ref="E26" r:id="rId66"/>
+    <hyperlink ref="C26" r:id="rId67"/>
+    <hyperlink ref="E27" r:id="rId68"/>
+    <hyperlink ref="C27" r:id="rId69"/>
+    <hyperlink ref="C28" r:id="rId70"/>
+    <hyperlink ref="E28" r:id="rId71"/>
+    <hyperlink ref="E29" r:id="rId72"/>
+    <hyperlink ref="G29" r:id="rId73"/>
+    <hyperlink ref="E30" r:id="rId74"/>
+    <hyperlink ref="G30" r:id="rId75"/>
+    <hyperlink ref="C30" r:id="rId76"/>
+    <hyperlink ref="E31" r:id="rId77"/>
+    <hyperlink ref="G31" r:id="rId78"/>
+    <hyperlink ref="C31" r:id="rId79"/>
+    <hyperlink ref="E32" r:id="rId80" display="mailto:info@alhadab.com.sa"/>
+    <hyperlink ref="G32" r:id="rId81"/>
+    <hyperlink ref="C32" r:id="rId82"/>
+    <hyperlink ref="E33" r:id="rId83"/>
+    <hyperlink ref="G33" r:id="rId84"/>
+    <hyperlink ref="E34" r:id="rId85"/>
+    <hyperlink ref="C34" r:id="rId86"/>
+    <hyperlink ref="E35" r:id="rId87"/>
+    <hyperlink ref="G35" r:id="rId88"/>
+    <hyperlink ref="C35" r:id="rId89"/>
+    <hyperlink ref="C36" r:id="rId90"/>
+    <hyperlink ref="E37" r:id="rId91"/>
+    <hyperlink ref="C38" r:id="rId92"/>
+    <hyperlink ref="C39" r:id="rId93"/>
+    <hyperlink ref="G40" r:id="rId94"/>
+    <hyperlink ref="C40" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/companydata.xlsx
+++ b/companydata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="419">
   <si>
     <t>Company Name</t>
   </si>
@@ -772,13 +772,570 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/ahmed-elkomy-83a205a6/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=eg</t>
+  </si>
+  <si>
+    <t>Starmass</t>
+  </si>
+  <si>
+    <t>SMARTECH AV Co.</t>
+  </si>
+  <si>
+    <t>Masar Consulting Engineers</t>
+  </si>
+  <si>
+    <t>Land Sterling - Riyadh</t>
+  </si>
+  <si>
+    <t>Adex Contracting and Maintenance</t>
+  </si>
+  <si>
+    <t>Development Company LTD شركة الأعمال التطويرية المحدودة</t>
+  </si>
+  <si>
+    <t>Tatweer Buildings Company</t>
+  </si>
+  <si>
+    <t>NEW SCOPE COMPANY</t>
+  </si>
+  <si>
+    <t>Fidwah construction company</t>
+  </si>
+  <si>
+    <t>Amaq Contracting Company Head Office</t>
+  </si>
+  <si>
+    <t>Exap Contracting Company</t>
+  </si>
+  <si>
+    <t>Unique construction Co.</t>
+  </si>
+  <si>
+    <t>First Basics Contracting Company</t>
+  </si>
+  <si>
+    <t>Masah Specialized construction Co.</t>
+  </si>
+  <si>
+    <t>JAL Human Resources Company</t>
+  </si>
+  <si>
+    <t>Meras projects</t>
+  </si>
+  <si>
+    <t>IMAN-GROUP</t>
+  </si>
+  <si>
+    <t>Al-Kurdi Trading and Contracting Company</t>
+  </si>
+  <si>
+    <t>AdEC</t>
+  </si>
+  <si>
+    <t>Safari Company</t>
+  </si>
+  <si>
+    <t>Anjal AlKhaleej Contracting Co.</t>
+  </si>
+  <si>
+    <t>Green Field Consulting (GFC)</t>
+  </si>
+  <si>
+    <t>AlNimal Holding Co</t>
+  </si>
+  <si>
+    <t>Al Azzam Al Arabia Trading &amp; Contracting Co LTD</t>
+  </si>
+  <si>
+    <t>Dar Al-Nada For Contracting Company</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/TtQss7xPwwgCDeSi6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hSkBKYY85ZhRuSDR6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9qBxP8HSthGJVzBD9</t>
+  </si>
+  <si>
+    <t>8670 Uthman Ibn Affan Rd, 4136, Riyadh 12445</t>
+  </si>
+  <si>
+    <t>4448 Al Imam Saud Ibn Abdul Aziz Branch Rd, Al Izdihar, Riyadh 12486</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/QKDT8PhwuYv2R8Xs9</t>
+  </si>
+  <si>
+    <t>Office # 11 on 2nd Floor، 7036 Khalid Ibn Al Walid St, Ghirnatah, Riyadh 13241</t>
+  </si>
+  <si>
+    <t>PQVG+X6M، Khalid Bin Waleed Street, Ar Rawdah, Riyadh 13213</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Nf9gKk2ZViBcXY1s8</t>
+  </si>
+  <si>
+    <t>7474 3285 الحسن بن علي،, Ar Rawdah, Riyadh 13211</t>
+  </si>
+  <si>
+    <t>14211 Eastern Ring Branch Rd, Ar Rayyan, Riyadh 14211</t>
+  </si>
+  <si>
+    <t>King Abdullah Branch Rd, Al Mughrizat, Riyadh 12482</t>
+  </si>
+  <si>
+    <t>QP4J+G3H، RHRB3739 ماجد بن معيد, Al Mughrizat, Riyadh 12482</t>
+  </si>
+  <si>
+    <t>Deem Plaza, king Abdullah Street, Al Hamra, Riyadh 13216</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9HcmtX6xmqi7jHCL7</t>
+  </si>
+  <si>
+    <t>PQ98+5CH, Khurais Rd, Ar Rawdah, Riyadh 13211</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/8KYbBg5Djuah2CA97</t>
+  </si>
+  <si>
+    <t>4370 Al Thaghr, King Abdullah Dt., Riyadh 12424</t>
+  </si>
+  <si>
+    <t>Hafsah Bint Omar, Ar Rawdah, Riyadh 11492</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/urF6ksTL3xpdUYN3A</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/fU6uDspkQfw3ndtq8</t>
+  </si>
+  <si>
+    <t>2883 Khurais Br Rd, Al Manar, Riyadh 14221</t>
+  </si>
+  <si>
+    <t>PQX7+XJG, Abdulrahman Al Ghafeqi St, Al Quds, Riyadh 13214</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/sUCnXy6uGCYiNw7g6</t>
+  </si>
+  <si>
+    <t>Abdullah Alsaadi St, King Abdullah, Riyadh 13216</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/7XsUr6TdywsSVjuS6</t>
+  </si>
+  <si>
+    <t>Said Ibn Al Munther St, Ar Rabwah, Riyadh 12824</t>
+  </si>
+  <si>
+    <t>PQGC+65C, Youssef Al Hamad, Ar Rawdah, Riyadh 13211</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/cRzL9Cz5DLJcCk8K6</t>
+  </si>
+  <si>
+    <t>الحسن بن علي،, Ar Rawdah, Riyadh 13213</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/oiTinbEPm1vgySEaA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTCC </t>
+  </si>
+  <si>
+    <t>(11) 4164111</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mibkm/</t>
+  </si>
+  <si>
+    <t>Muhammad Ibrahim</t>
+  </si>
+  <si>
+    <t>7649 Imam Abdullah Ibn Saud Ibn Abdulaziz Rd, Ishbiliyah, 2181, Riyadh 13225</t>
+  </si>
+  <si>
+    <t>abdusamad siddiqui</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abdusamad-siddiqui-6208545/</t>
+  </si>
+  <si>
+    <t>info@starmass.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First Guld Company درع الخليج لأنظمه الأمن والسلامه والأعمال الكهروميكانيك</t>
+  </si>
+  <si>
+    <t>Naim Saidi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naim-saidi-aa568b85/?originalSubdomain=lb</t>
+  </si>
+  <si>
+    <t>2169 Makkah Al Mukarramah Br Rd, 8047, As Sulimaniyah, Riyadh 12621</t>
+  </si>
+  <si>
+    <t> 011 219 0888</t>
+  </si>
+  <si>
+    <t>8550 Uthman Ibn Affan Rd, Al Wahah, Riyadh 12443 4191 Uthman Ibn Affan Rd, 4191, King Salman Neighborhood, Riyadh 12443</t>
+  </si>
+  <si>
+    <t>11 229 6038</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/yVARW1F</t>
+  </si>
+  <si>
+    <t>Yousef A. Abdul Hadi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yousefabdulhadi/</t>
+  </si>
+  <si>
+    <t>1616 Uthman Ibn Affan Rd, King Salman Neighborhood, Riyadh 12445</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Zmxz7Bh</t>
+  </si>
+  <si>
+    <t>011 229 5052</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/saleh-alghunaimi-35257498/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saleh Alghunaimi (General Manager)
+</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/1oKjNLb</t>
+  </si>
+  <si>
+    <t>Office A123 Al Waha Square Building, Uthman Ibn Affan Rd، Al Waha District, Riyadh 12445</t>
+  </si>
+  <si>
+    <t>9200 31892; 9200 14 799</t>
+  </si>
+  <si>
+    <t>Youcef Betraoui MRICS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/youcef-betraoui-mrics-52369317/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/hUojuz6</t>
+  </si>
+  <si>
+    <t>050 583 1267</t>
+  </si>
+  <si>
+    <t>PPVF+QPV, Uthman Ibn Affan Rd, King Salman Neighborhood, Riyadh 12445</t>
+  </si>
+  <si>
+    <t>ashraf wali</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashraf-wali-06313024/</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8864 Turki Ibn Ahmad Al Sudairi, 3065, King Salman Neighborhood, 3065, Riyadh 12444</t>
+    </r>
+  </si>
+  <si>
+    <t>https://g.co/kgs/oQQPH2z</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/gzghAVq</t>
+  </si>
+  <si>
+    <t>King Salman Neighborhood, 8584 طريق عثمان بن عفان، الواحة، الرياض 12443 4159،, Riyadh 12443</t>
+  </si>
+  <si>
+    <t>9200 22161</t>
+  </si>
+  <si>
+    <t>Fahad Hammad</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fahad-hammad-55226b180/</t>
+  </si>
+  <si>
+    <t>info@tbc.sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/frULNo8</t>
+  </si>
+  <si>
+    <t>info@newscope-gc.com</t>
+  </si>
+  <si>
+    <t>Haif Company</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/v1pL9Mz</t>
+  </si>
+  <si>
+    <t>MMHP+9FQ, Makkah Al Mukarramah Br Rd, Al Olaya, Riyadh 12311</t>
+  </si>
+  <si>
+    <t> 011 464 9038</t>
+  </si>
+  <si>
+    <t>Abdullah Al Shamsan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abdullah-al-shamsan-889817227/</t>
+  </si>
+  <si>
+    <t>info@haifcompany.com</t>
+  </si>
+  <si>
+    <t>El Seif Development Company</t>
+  </si>
+  <si>
+    <t>6626 Northern Ring Rd, Al Wadi، 4008, Riyadh 13313</t>
+  </si>
+  <si>
+    <t>011 454 5996</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/Y4hCBAH</t>
+  </si>
+  <si>
+    <t>abdulaziz@elseif.com.sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engr.Khaled. Al Seif
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/engr-khaled-al-seif-3511aa12/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/RBhRPz2</t>
+  </si>
+  <si>
+    <t> طريق الامام سعود, Ishbiliyah, Riyadh 13225</t>
+  </si>
+  <si>
+    <t>058 385 0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Construction Power Company شركة قوى التعمير للمقاولات</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/4Wo3t1G</t>
+  </si>
+  <si>
+    <t>info@fidwah.com</t>
+  </si>
+  <si>
+    <t> 11 203 4848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussein Alsulyman
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hussein-alsulyman-b297ba109/</t>
+  </si>
+  <si>
+    <t>11 240 1672</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/4nzTHjW</t>
+  </si>
+  <si>
+    <t>011 232 3555</t>
+  </si>
+  <si>
+    <t>Mohamed Shamd</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohamed-shamd-8baab016b/</t>
+  </si>
+  <si>
+    <t>011 254 2127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustafa Al-Qadi
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mustafa-al-qadi-64091a86/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/bujyhfr</t>
+  </si>
+  <si>
+    <t>info@fbc.com.sa</t>
+  </si>
+  <si>
+    <t>Ahmed Hassanin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ahmed-hassanin-1867665b/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/TFbyKmd</t>
+  </si>
+  <si>
+    <t>057 236 3934</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PQCG+WCX, Khurais road،Rayyan Street, Ar Rayyan, Riyadh 11352</t>
+    </r>
+  </si>
+  <si>
+    <t>Info@masahsplcon.com</t>
+  </si>
+  <si>
+    <t>Eng.Mohmmed Abdul Nayeem</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/eng-mohmmed-abdul-nayeem-7141a41b5/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/bosREtC</t>
+  </si>
+  <si>
+    <t>9200 16010</t>
+  </si>
+  <si>
+    <t>Contact@ja-hr.com</t>
+  </si>
+  <si>
+    <t>Mohammed Al-Qahtani</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohammed-al-qahtani-85a7b130/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/3PoCm8B</t>
+  </si>
+  <si>
+    <t>info@samahccl.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samah Company شركة سماح للمقاولات المحدودة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed AlQahtani
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohammed-alqahtani-4702b8339/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Halabi
+ </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/omar-halabi-29153341/</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/UxpDxtc</t>
+  </si>
+  <si>
+    <t>kurdiruh@alkurdi.com.sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayyad AlKurdi AlMilli
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayyad-alkurdi-almilli-06080288/</t>
+  </si>
+  <si>
+    <t>kaia@safari.com.sa</t>
+  </si>
+  <si>
+    <t>12 6857300</t>
+  </si>
+  <si>
+    <t>Ali Al Sagri</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ali-al-sagri-2005a935/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fahad-alqahtani-a06891154/</t>
+  </si>
+  <si>
+    <t>Fahad Alqahtani</t>
+  </si>
+  <si>
+    <t>easg1@hotmail.com</t>
+  </si>
+  <si>
+    <t>wlaboun@greenfield.sa</t>
+  </si>
+  <si>
+    <t>050 533 3534; 054 330 0033</t>
+  </si>
+  <si>
+    <t> 114922111</t>
+  </si>
+  <si>
+    <t>info@alnimal.com.sa</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/uKTudTM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abdallah-mohammed-4b29b7115/</t>
+  </si>
+  <si>
+    <t>Abdallah Mohammed</t>
+  </si>
+  <si>
+    <t>Tarek Alahmed</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tarek-alahmed-1599971b/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khaled-aljohani-b7799019/</t>
+  </si>
+  <si>
+    <t>Khaled Aljohani</t>
+  </si>
+  <si>
+    <t>info@daralnada.sa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +1374,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,9 +1424,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,9 +1445,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -886,6 +1452,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1169,1451 +1738,1670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="144.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="233.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="183" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>555027436</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>966114765555</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>114602919</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>114239402</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>112664999</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>114232654</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>114977977</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>115104000</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>114927307</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>112331558</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>559025444</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>114765992</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>11236302</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>114910999</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>114774307</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>114171919</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3">
+      <c r="E36" s="5"/>
+      <c r="F36" s="2">
         <v>114927137</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3">
+      <c r="E38" s="5"/>
+      <c r="F38" s="2">
         <v>114910590</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>112270008</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="2">
+        <v>538514324</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="2">
+        <v>114926554</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F61" s="2">
+        <v>114000713</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F62" s="2">
+        <v>555084131</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="2">
+        <v>114920003</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F64" s="2">
+        <v>114761918</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F67" s="2">
+        <v>114730909</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="2">
+        <v>114910029</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="2">
+        <v>114974699</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D86" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2712,6 +3500,49 @@
     <hyperlink ref="C39" r:id="rId93"/>
     <hyperlink ref="G40" r:id="rId94"/>
     <hyperlink ref="C40" r:id="rId95"/>
+    <hyperlink ref="D41" r:id="rId96" display="https://www.rtcc.com.sa/"/>
+    <hyperlink ref="F41" r:id="rId97" display="https://www.rtcc.com.sa/"/>
+    <hyperlink ref="C42" r:id="rId98"/>
+    <hyperlink ref="E42" r:id="rId99"/>
+    <hyperlink ref="F43" r:id="rId100" display="https://www.google.com/search?q=first+gulf+company+riyadh&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWILamJZTGleU54Uk_YAAu3N3_AZuoQ%3A1735811290002&amp;ei=2WB2Z7_pPKytkdUPj4eM4AM&amp;ved=0ahUKEwj_udn64NaKAxWsVqQEHY8DAzwQ4dUDCA8&amp;uact=5&amp;oq=first+gulf+company+riyadh&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGWZpcnN0IGd1bGYgY29tcGFueSByaXlhZGgyERAuGIAEGJECGMcBGIoFGK8BMgIQJjICECYyAhAmMgsQABiABBiGAxiKBTILEAAYgAQYhgMYigUyCxAAGIAEGIYDGIoFMgsQABiABBiGAxiKBTILEAAYgAQYhgMYigUyCBAAGIAEGKIEMiAQLhiABBiRAhjHARiKBRivARiXBRjcBBjeBBjgBNgBAUj_LlCLC1jCLXAEeAGQAQCYAfEBoAGjJKoBBjAuMjEuNbgBA8gBAPgBAZgCHqAC9SXCAgoQABiwAxjWBBhHwgIEECMYJ8ICEBAuGIAEGEMYxwEYigUYrwHCAhEQLhiABBiRAhjRAxjHARiKBcICChAAGIAEGEMYigXCAhYQLhiABBixAxjRAxhDGIMBGMcBGIoFwgILEAAYgAQYkQIYigXCAhAQLhiABBjRAxhDGMcBGIoFwgIWEC4YgAQYsQMYQxiDARjHARiKBRivAcICDRAAGIAEGLEDGEMYigXCAgQQABgDwgILEC4YgAQYxwEYrwHCAgUQABiABMICChAAGIAEGBQYhwLCAgYQABgWGB7CAgUQABjvBZgDAIgGAZAGBboGBggBEAEYFJIHBjQuMTkuN6AH1eUC&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F44" r:id="rId101" display="https://www.google.com/search?q=SMARTECH+AV+Co.&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWIIfg2Y70hM1mbFHDdof1fxNDivxow%3A1735811337258&amp;ei=CWF2Z_OwD6Coi-gPwfa24Qw&amp;ved=0ahUKEwiz2Z2R4daKAxUg1AIHHUG7LcwQ4dUDCA8&amp;uact=5&amp;oq=SMARTECH+AV+Co.&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiD1NNQVJURUNIIEFWIENvLjIGEAAYFhgeMgIQJjIFEAAY7wUyCBAAGIAEGKIEMgUQABjvBUiyLVC5CFj0EXADeAGQAQCYAcsBoAHLAaoBAzItMbgBA8gBAPgBAvgBAZgCBKAC4gHCAgoQABiwAxjWBBhHmAMAiAYBkAYIkgcFMy4wLjGgB4MC&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C44" r:id="rId102"/>
+    <hyperlink ref="F45" r:id="rId103" display="https://www.google.com/search?q=Masar+Consulting+Engineers%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWILVye_qbKQHv9Y9i0eNSgd31PEUZA%3A1735811502670&amp;ei=rmF2Z83CKJWJkdUPg4Gr4QU&amp;ved=0ahUKEwjN0Y3g4daKAxWVRKQEHYPAKlwQ4dUDCA8&amp;uact=5&amp;oq=Masar+Consulting+Engineers%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiG01hc2FyIENvbnN1bHRpbmcgRW5naW5lZXJzCjILEAAYgAQYsAMYogQyCBAAGLADGO8FMggQABiwAxjvBTIIEAAYsAMY7wVIhRdQ5whY5whwA3gAkAEAmAEAoAEAqgEAuAEDyAEA-AEC-AEBmAIDoAIOmAMAiAYBkAYEkgcBM6AHAA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C45" r:id="rId104"/>
+    <hyperlink ref="F46" r:id="rId105" display="https://www.google.com/search?q=Land+Sterling+-+Riyadh+%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWIJ9Qtqvieski6Uhi9Z947Q6M52crQ%3A1735811642390&amp;ei=OmJ2Z_PpFpCahbIP7tSK8A0&amp;ved=0ahUKEwjz7tyi4taKAxUQTUEAHW6qAt4Q4dUDCA8&amp;uact=5&amp;oq=Land+Sterling+-+Riyadh+%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGExhbmQgU3RlcmxpbmcgLSBSaXlhZGggCjIIEAAYsAMY7wUyCxAAGIAEGLADGKIEMggQABiwAxjvBUizKVDPCFj9JnADeACQAQCYAQCgAQCqAQC4AQPIAQD4AQL4AQGYAgOgAguYAwCIBgGQBgOSBwEzoAcA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F47" r:id="rId106" display="https://www.google.com/search?q=Adex+Contracting+and+Maintenance%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWII7gsSXaBJmzT8F-ZOUzJu0uSG_3g%3A1735811872548&amp;ei=IGN2Z6CWIb7ui-gPq8m1kQI&amp;ved=0ahUKEwigpr2Q49aKAxU-9wIHHatkLSIQ4dUDCA8&amp;uact=5&amp;oq=Adex+Contracting+and+Maintenance%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiIUFkZXggQ29udHJhY3RpbmcgYW5kIE1haW50ZW5hbmNlCjIKEAAYsAMY1gQYRzIKEAAYsAMY1gQYRzIKEAAYsAMY1gQYR0iGClDcB1jcB3ADeAGQAQCYAQCgAQCqAQC4AQPIAQD4AQL4AQGYAgOgAg6YAwCIBgGQBgOSBwEzoAcA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="B47" r:id="rId107" display="https://www.linkedin.com/in/ashraf-wali-06313024/overlay/about-this-profile/"/>
+    <hyperlink ref="F49" r:id="rId108" display="https://www.google.com/search?q=Tatweer+Buildings+Company%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWIIUUblpZCpeKy2iMfMdHufozWZ15Q%3A1735812120521&amp;ei=GGR2Z_K5H_GbkdUPk5nMAQ&amp;ved=0ahUKEwjypdyG5NaKAxXxTaQEHZMMMwAQ4dUDCA8&amp;uact=5&amp;oq=Tatweer+Buildings+Company%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGlRhdHdlZXIgQnVpbGRpbmdzIENvbXBhbnkKMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHSOMZUP0HWP0HcAN4AZABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCA6ACDZgDAIgGAZAGA5IHATOgBwA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C49" r:id="rId109"/>
+    <hyperlink ref="E50" r:id="rId110"/>
+    <hyperlink ref="F51" r:id="rId111" display="https://www.google.com/search?q=Haif+company+riyadh&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWILU8KTnF03PbubqW_xuqHtWWUK0oQ%3A1735812462731&amp;ei=bmV2Z8CrLOGri-gP2MaJkQE&amp;ved=0ahUKEwjAmvOp5daKAxXh1QIHHVhjIhIQ4dUDCA8&amp;uact=5&amp;oq=Haif+company+riyadh&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiE0hhaWYgY29tcGFueSByaXlhZGgyCxAuGIAEGMcBGK8BMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjICECYyAhAmMgsQABiABBiGAxiKBTILEAAYgAQYhgMYigUyGhAuGIAEGMcBGK8BGJcFGNwEGN4EGOAE2AEBSIMzUL0PWMUxcAR4AJABAZgB6AOgAcQjqgEJMC42LjMuNC4zuAEDyAEA-AEBmAISoAKRHsICCxAAGIAEGLADGKIEwgIEECMYJ8ICChAjGIAEGCcYigXCAgoQABiABBhDGIoFwgILEAAYgAQYkQIYigXCAhAQABiABBixAxhDGIMBGIoFwgIKEC4YgAQYQxiKBcICERAuGIAEGJECGMcBGIoFGK8BwgINEC4YgAQYsQMYQxiKBcICDRAAGIAEGLEDGEMYigXCAhkQLhiABBhDGIoFGJcFGNwEGN4EGN8E2AEBwgIQEC4YgAQYFBjHARiHAhivAcICBRAAGIAEwgIfEC4YgAQYFBjHARiHAhivARiXBRjcBBjeBBjgBNgBAcICIBAuGIAEGJECGMcBGIoFGK8BGJcFGNwEGN4EGOAE2AEBwgIIEAAYFhgKGB7CAggQABiABBiiBJgDAIgGAZAGA7oGBggBEAEYFJIHCTQuNi4zLjMuMqAHtJUB&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="B51" r:id="rId112" display="https://www.linkedin.com/in/abdullah-al-shamsan-889817227/overlay/about-this-profile/"/>
+    <hyperlink ref="E51" r:id="rId113"/>
+    <hyperlink ref="F52" r:id="rId114" display="https://www.google.com/search?q=El+Seif+head+office%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWIJDExOXEoWgw1vHcRozHeLsVDrcAg%3A1735812630884&amp;ei=FmZ2Z5nTNcPNhbIPycWviAw&amp;ved=0ahUKEwiZtor65daKAxXDZkEAHcniC8EQ4dUDCA8&amp;uact=5&amp;oq=El+Seif+head+office%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFEVsIFNlaWYgaGVhZCBvZmZpY2UKMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHSMMOULEHWLEHcAN4AZABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCA6ACFJgDAIgGAZAGBJIHATOgBwA&amp;sclient=gws-wiz-serp&amp;lqi=ChNFbCBTZWlmIGhlYWQgb2ZmaWNlSMCDysqbroCACFoxEAAQARACEAMYABgBGAIYAyITZWwgc2VpZiBoZWFkIG9mZmljZSoKCAIQABABEAIQA5IBEGNvcnBvcmF0ZV9vZmZpY2WqATwQATIfEAEiG9-qrmnE4Htbt1dgnu5o5_JtYQunxmaJGc-DVjIXEAIiE2VsIHNlaWYgaGVhZCBvZmZpY2U"/>
+    <hyperlink ref="E52" r:id="rId115" display="https://elseif.com.sa/contact-us/abdulaziz@elseif.com.sa"/>
+    <hyperlink ref="C52" r:id="rId116"/>
+    <hyperlink ref="F53" r:id="rId117" display="https://www.google.com/search?q=%D8%B4%D8%B1%D9%83%D8%A9+%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%AA%D8%B9%D9%85%D9%8A%D8%B1+%D9%84%D9%84%D9%85%D9%82%D8%A7%D9%88%D9%84%D8%A7%D8%AA%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWIKWcv3_etrf2yddRRJvFZfmyrNoXA%3A1735812941178&amp;source=hp&amp;ei=TWd2Z8GjCOCrwbkPstCF6QI&amp;iflsig=AL9hbdgAAAAAZ3Z1XeQaHDJPeRKrDDFZe2K_Uw-Jj1C6&amp;ved=0ahUKEwiB_oKO59aKAxXgVTABHTJoIS0Q4dUDCBc&amp;uact=5&amp;oq=%D8%B4%D8%B1%D9%83%D8%A9+%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%AA%D8%B9%D9%85%D9%8A%D8%B1+%D9%84%D9%84%D9%85%D9%82%D8%A7%D9%88%D9%84%D8%A7%D8%AA%0D%0A&amp;gs_lp=Egdnd3Mtd2l6IjLYtNix2YPYqSDZgtmI2Ykg2KfZhNiq2LnZhdmK2LEg2YTZhNmF2YLYp9mI2YTYp9iqCjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAjIHECMYJxjqAkjVOFAAWP8xcAF4AJABAJgByQGgAckBqgEDMi0xuAEDyAEA-AEC-AEBmAIBoAIKqAIKmAMK8QWusWQYo9DJIJIHATGgB20&amp;sclient=gws-wiz"/>
+    <hyperlink ref="E54" r:id="rId118" display="mailto:info@fidwah.com"/>
+    <hyperlink ref="F54" r:id="rId119" display="tel:+966112034848"/>
+    <hyperlink ref="C54" r:id="rId120"/>
+    <hyperlink ref="F56" r:id="rId121" display="https://www.google.com/search?q=Exap+Contracting+Company%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWII_bzTsiWRRWZKvlye-UOe_Pt3rAw%3A1735813365762&amp;ei=9Wh2Z5yfLunX7M8Pp6HB6QM&amp;ved=0ahUKEwjc7b_Y6NaKAxXpK_sDHadQMD0Q4dUDCA8&amp;uact=5&amp;oq=Exap+Contracting+Company%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGUV4YXAgQ29udHJhY3RpbmcgQ29tcGFueQoyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEdI8R5Q4AdY4AdwA3gAkAEBmAGkAaABpAGqAQMwLjG4AQPIAQD4AQL4AQGYAgOgAhiYAwCIBgGQBgiSBwEzoAerBQ&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="B56" r:id="rId122" display="https://www.linkedin.com/in/mohamed-shamd-8baab016b/overlay/about-this-profile/"/>
+    <hyperlink ref="F57" r:id="rId123" display="https://www.google.com/search?q=Unique+construction+Co.%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWIJmejYrkzGV7Tk4E0kiJoDwQZI_iA%3A1735813614288&amp;ei=7ml2Z6imEZGakdUP-rLt6Qc&amp;ved=0ahUKEwio1YDP6daKAxURTaQEHXpZO30Q4dUDCA8&amp;uact=5&amp;oq=Unique+construction+Co.%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGFVuaXF1ZSBjb25zdHJ1Y3Rpb24gQ28uCjILEAAYgAQYsAMYogQyCxAAGLADGKIEGIkFMggQABiwAxjvBTILEAAYgAQYsAMYogQyCxAAGIAEGLADGKIESI0UUOcHWOcHcAN4AJABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCA6ACDpgDAIgGAZAGBZIHATOgBwA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C57" r:id="rId124"/>
+    <hyperlink ref="F58" r:id="rId125" display="tel:0114926554"/>
+    <hyperlink ref="E58" r:id="rId126" display="mailto:info@fbc.com.sa"/>
+    <hyperlink ref="B58" r:id="rId127" display="https://www.linkedin.com/in/ahmed-hassanin-1867665b/overlay/about-this-profile/"/>
+    <hyperlink ref="F59" r:id="rId128" display="https://www.google.com/search?q=Masah+Specialized+construction+Co.%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWIJada-asw9eX2bI90D6hUX81d1hyw%3A1735814010482&amp;ei=emt2Z6KRHYSB7M8P2q3CkAY&amp;ved=0ahUKEwiitvaL69aKAxWEAPsDHdqWEGIQ4dUDCA8&amp;uact=5&amp;oq=Masah+Specialized+construction+Co.%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiI01hc2FoIFNwZWNpYWxpemVkIGNvbnN0cnVjdGlvbiBDby4KMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHMgoQABiwAxjWBBhHSLAKUM8HWM8HcAN4AZABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCA6ACEJgDAIgGAZAGCJIHATOgBwA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C59" r:id="rId129"/>
+    <hyperlink ref="F60" r:id="rId130" display="https://www.google.com/search?q=JAL+Human+Resources+Company%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWILeapzrx3mbc-8a4H517EqJ3rc_aw%3A1735814091719&amp;ei=y2t2Z4zNK5mikdUPzcGaoQY&amp;ved=0ahUKEwjM3tSy69aKAxUZUaQEHc2gJmQQ4dUDCA8&amp;uact=5&amp;oq=JAL+Human+Resources+Company%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiHEpBTCBIdW1hbiBSZXNvdXJjZXMgQ29tcGFueQoyDRAAGLADGNYEGEcYyQMyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyChAAGLADGNYEGEcyDhAAGIAEGLADGJIDGIoFSIkPUNMKWNMKcAN4AZABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCA6ACE5gDAIgGAZAGCZIHATOgBwA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C64" r:id="rId131"/>
+    <hyperlink ref="E66" r:id="rId132" display="mailto:kaia@safari.com.sa"/>
+    <hyperlink ref="B66" r:id="rId133" display="https://www.linkedin.com/in/ali-al-sagri-2005a935/overlay/about-this-profile/"/>
+    <hyperlink ref="E67" r:id="rId134" display="mailto:easg1@hotmail.com"/>
+    <hyperlink ref="F68" r:id="rId135" display="https://www.google.com/search?q=Green+Field+Consulting+%28GFC%29%0D%0A&amp;sca_esv=b0f797ce64e50b5b&amp;sxsrf=ADLYWIJ-u2FfkeHKxY36O_cJI8mXJ95CYw%3A1735815986289&amp;ei=MnN2Z8GvEbrNhbIP3IfY6Ac&amp;ved=0ahUKEwjBkIi68taKAxW6ZkEAHdwDFn0Q4dUDCA8&amp;uact=5&amp;oq=Green+Field+Consulting+%28GFC%29%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiHUdyZWVuIEZpZWxkIENvbnN1bHRpbmcgKEdGQykKMggQABiwAxjvBTIIEAAYsAMY7wUyCBAAGLADGO8FMgsQABiABBiwAxiiBDILEAAYgAQYsAMYogRIkApQ0AdY0AdwA3gAkAEAmAEAoAEAqgEAuAEDyAEA-AEC-AEBmAIDoAIOmAMAiAYBkAYFkgcBM6AHAA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="B69" r:id="rId136" display="https://www.linkedin.com/in/abdallah-mohammed-4b29b7115/overlay/about-this-profile/"/>
+    <hyperlink ref="C70" r:id="rId137"/>
+    <hyperlink ref="E71" r:id="rId138" display="mailto:info@daralnada.sa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
